--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasan\OneDrive\Desktop\Streamlit+PYTHON+Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9cd9fa3079768ea/Desktop/Streamlit^MPYTHON^MExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C84E3-6066-4B62-B2CA-6E786027ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{769C84E3-6066-4B62-B2CA-6E786027ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C58E2E0-445C-43E1-97DB-E9E9A3E14B78}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EC91007-C8D0-428D-81B2-1CDED84F204B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Usuario</t>
   </si>
@@ -36,25 +36,52 @@
     <t>Rol</t>
   </si>
   <si>
-    <t>sebas</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>amd</t>
+    <t>Jose Elizalde</t>
+  </si>
+  <si>
+    <t>IserJE2025</t>
+  </si>
+  <si>
+    <t>Sebastian Pazmiño</t>
+  </si>
+  <si>
+    <t>IserSP2025</t>
+  </si>
+  <si>
+    <t>Maritza Andrango</t>
+  </si>
+  <si>
+    <t>ISMAT28</t>
+  </si>
+  <si>
+    <t>Diego Andrango</t>
+  </si>
+  <si>
+    <t>ISDAT27</t>
+  </si>
+  <si>
+    <t>Alexis Andrango</t>
+  </si>
+  <si>
+    <t>ISAAT26</t>
+  </si>
+  <si>
+    <t>Calendario</t>
+  </si>
+  <si>
+    <t>Iser2025</t>
+  </si>
+  <si>
+    <t>Juan Andrango</t>
+  </si>
+  <si>
+    <t>IserJA2025</t>
   </si>
 </sst>
 </file>
@@ -406,13 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324F942A-B2A3-4BF2-9DD5-DE536E1C1216}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -427,35 +457,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
